--- a/Problems2_veil.xlsx
+++ b/Problems2_veil.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\СУБД\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\СУБД\DBMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668CA0EB-E64C-4004-854E-8B651EC60625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A55CDC5-39C2-4DE5-8A1A-FF09269ECDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{9F710AB5-FC6E-4883-A3B6-7E25952EFCD1}"/>
   </bookViews>
@@ -172,16 +172,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -307,56 +307,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>596265</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>97155</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Рисунок 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8180601B-590B-7549-D01B-CB55F867D7E2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="624840" y="8496300"/>
-          <a:ext cx="6677025" cy="2581275"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
       <xdr:row>89</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
@@ -381,7 +331,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -431,7 +381,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -486,7 +436,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -536,7 +486,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -561,23 +511,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>192</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>463650</xdr:colOff>
-      <xdr:row>206</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>13335</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Рисунок 12">
+        <xdr:cNvPr id="7" name="Рисунок 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3F0AB91-33E7-E6FA-2F4F-09783E1504D3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{340655EE-D3FD-8EBD-2C9B-A5E6C2EB3453}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -586,7 +536,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -599,8 +549,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="34770060"/>
-          <a:ext cx="5340450" cy="2621280"/>
+          <a:off x="4838700" y="40096440"/>
+          <a:ext cx="4676775" cy="2581275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -611,23 +561,73 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>219</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>31150</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>234</xdr:row>
-      <xdr:rowOff>13335</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>367665</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Рисунок 6">
+        <xdr:cNvPr id="5" name="Рисунок 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{340655EE-D3FD-8EBD-2C9B-A5E6C2EB3453}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC85A5D4-A30B-947B-D229-E78E1B51C733}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1250350" y="8534400"/>
+          <a:ext cx="6432515" cy="3042285"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>573405</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Рисунок 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20C5B410-5583-5A97-EF7B-6182A2369295}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -649,8 +649,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4838700" y="40096440"/>
-          <a:ext cx="4676775" cy="2581275"/>
+          <a:off x="1249680" y="35128200"/>
+          <a:ext cx="7248525" cy="9715500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -959,16 +959,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AF8BC44-07CC-451C-A5EF-8A2104260014}">
-  <dimension ref="A1:O227"/>
+  <dimension ref="A1:O268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="S218" sqref="S218"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1166,130 +1166,150 @@
         <v>7</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A209">
+    <row r="230" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" spans="1:10" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A250">
         <v>9</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B250" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B210" t="s">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B251" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B212" s="3" t="s">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B253" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C212" s="3"/>
-      <c r="D212" s="3"/>
-      <c r="E212" s="3"/>
-      <c r="F212" s="3"/>
-    </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B213" s="3" t="s">
+      <c r="C253" s="6"/>
+      <c r="D253" s="6"/>
+      <c r="E253" s="6"/>
+      <c r="F253" s="6"/>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B254" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C213" s="3"/>
-      <c r="D213" s="3"/>
-      <c r="E213" s="3"/>
-      <c r="F213" s="3"/>
-    </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B214" s="3"/>
-      <c r="C214" s="3"/>
-      <c r="D214" s="3"/>
-      <c r="E214" s="3"/>
-      <c r="F214" s="3"/>
-    </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B215" s="3" t="s">
+      <c r="C254" s="6"/>
+      <c r="D254" s="6"/>
+      <c r="E254" s="6"/>
+      <c r="F254" s="6"/>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B255" s="6"/>
+      <c r="C255" s="6"/>
+      <c r="D255" s="6"/>
+      <c r="E255" s="6"/>
+      <c r="F255" s="6"/>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B256" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C215" s="3"/>
-      <c r="D215" s="3"/>
-      <c r="E215" s="3"/>
-      <c r="F215" s="3"/>
-      <c r="J215" s="4"/>
-    </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B216" s="5" t="s">
+      <c r="C256" s="6"/>
+      <c r="D256" s="6"/>
+      <c r="E256" s="6"/>
+      <c r="F256" s="6"/>
+      <c r="J256" s="3"/>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B257" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C216" s="5"/>
-      <c r="D216" s="5"/>
-      <c r="E216" s="5"/>
-      <c r="F216" s="5"/>
-    </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A219">
+      <c r="C257" s="5"/>
+      <c r="D257" s="5"/>
+      <c r="E257" s="5"/>
+      <c r="F257" s="5"/>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A260">
         <v>10</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B260" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B220" t="s">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B261" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B223" s="3" t="s">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B264" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C223" s="3"/>
-      <c r="D223" s="3"/>
-      <c r="E223" s="3"/>
-      <c r="F223" s="3"/>
-      <c r="G223" s="3"/>
-    </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B224" s="3" t="s">
+      <c r="C264" s="6"/>
+      <c r="D264" s="6"/>
+      <c r="E264" s="6"/>
+      <c r="F264" s="6"/>
+      <c r="G264" s="6"/>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B265" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C224" s="3"/>
-      <c r="D224" s="3"/>
-      <c r="E224" s="3"/>
-      <c r="F224" s="3"/>
-      <c r="G224" s="3"/>
-    </row>
-    <row r="225" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B225" s="3" t="s">
+      <c r="C265" s="6"/>
+      <c r="D265" s="6"/>
+      <c r="E265" s="6"/>
+      <c r="F265" s="6"/>
+      <c r="G265" s="6"/>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B266" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C225" s="3"/>
-      <c r="D225" s="3"/>
-      <c r="E225" s="3"/>
-      <c r="F225" s="3"/>
-      <c r="G225" s="3"/>
-    </row>
-    <row r="226" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B226" s="3" t="s">
+      <c r="C266" s="6"/>
+      <c r="D266" s="6"/>
+      <c r="E266" s="6"/>
+      <c r="F266" s="6"/>
+      <c r="G266" s="6"/>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B267" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C226" s="3"/>
-      <c r="D226" s="3"/>
-      <c r="E226" s="3"/>
-      <c r="F226" s="3"/>
-      <c r="G226" s="3"/>
-    </row>
-    <row r="227" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D227" s="2"/>
+      <c r="C267" s="6"/>
+      <c r="D267" s="6"/>
+      <c r="E267" s="6"/>
+      <c r="F267" s="6"/>
+      <c r="G267" s="6"/>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D268" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B216:F216"/>
-    <mergeCell ref="B226:G226"/>
-    <mergeCell ref="B225:G225"/>
-    <mergeCell ref="B224:G224"/>
-    <mergeCell ref="B223:G223"/>
-    <mergeCell ref="B212:F212"/>
-    <mergeCell ref="B213:F213"/>
-    <mergeCell ref="B215:F215"/>
-    <mergeCell ref="B214:F214"/>
+    <mergeCell ref="B253:F253"/>
+    <mergeCell ref="B254:F254"/>
+    <mergeCell ref="B256:F256"/>
+    <mergeCell ref="B255:F255"/>
+    <mergeCell ref="B257:F257"/>
+    <mergeCell ref="B267:G267"/>
+    <mergeCell ref="B266:G266"/>
+    <mergeCell ref="B265:G265"/>
+    <mergeCell ref="B264:G264"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
